--- a/medicine/Œil et vue/Mark_Podwal/Mark_Podwal.xlsx
+++ b/medicine/Œil et vue/Mark_Podwal/Mark_Podwal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mark H. Podwal (né le 8 juin 1945 à Brooklyn, New York) est un médecin juif américain, ophtalmologiste, connu pour ses illustrations, pour le New York Times et pour plusieurs ouvrages dont le Golem  d'Elie Wiesel.
 </t>
@@ -511,13 +523,85 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Mark H. Powdal est né le 8 juin 1945 à Brooklyn[1],  New York. Il reçoit un B.A. du Queens College de l'Université de la ville de New York, en 1967.
-Dermatologue
-Mark Powdal fait ses études de médecine au New York University School of Medicine et reçoit son M.D., en 1970. Il est un dermatologue, Clinical Associate Professor, Ronald O. Perlman Department of Dermatology, au NYU Langone Medical Center[2],[3].
-Illustrateur
-Livres pour adultes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark H. Powdal est né le 8 juin 1945 à Brooklyn,  New York. Il reçoit un B.A. du Queens College de l'Université de la ville de New York, en 1967.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mark_Podwal</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mark_Podwal</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dermatologue</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark Powdal fait ses études de médecine au New York University School of Medicine et reçoit son M.D., en 1970. Il est un dermatologue, Clinical Associate Professor, Ronald O. Perlman Department of Dermatology, au NYU Langone Medical Center,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mark_Podwal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mark_Podwal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Livres pour adultes :
 (en) Let My People Go: A Haggadah, Darien House, New York, New York, 1972.
 (en) Paul Simon, New Songs, Knopf, New York, New York, 1975.
 (en) Francine Klagsbrun, Voices of Wisdom, Pantheon, New York, New York, 1979, republished by Jonathan David Publishers, 1986.
